--- a/docs/jig/tracking/business-rule.xlsx
+++ b/docs/jig/tracking/business-rule.xlsx
@@ -275,9 +275,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.6796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.96875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.2265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.18359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="4.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -349,16 +349,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.6796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.7265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="64.95703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.71484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.96875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="7.75390625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="19.87890625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="97.13671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.18359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.6328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="66.70703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="7.9296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="7.66796875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.9296875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="101.2734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -727,14 +727,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.77734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.3515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.25" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="33.5546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.1953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="16.88671875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.87109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="34.44140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -803,18 +803,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.6796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.7265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="37.36328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="15.1328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="64.95703125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="21.4609375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="22.24609375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="15.921875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="15.1328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.6328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.18359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.6328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.1796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.9296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="66.70703125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.9296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="16.12890625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="12.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="9.9296875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="10.3515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/jig/tracking/business-rule.xlsx
+++ b/docs/jig/tracking/business-rule.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="76">
   <si>
     <t/>
   </si>
@@ -38,15 +38,24 @@
     <t>com.practicalddd.cargotracker.tracking.domain.model.aggregates</t>
   </si>
   <si>
+    <t>集約</t>
+  </si>
+  <si>
     <t>com.practicalddd.cargotracker.tracking.domain.model.commands</t>
   </si>
   <si>
+    <t>コマンド</t>
+  </si>
+  <si>
     <t>com.practicalddd.cargotracker.tracking.domain.model.entities</t>
   </si>
   <si>
     <t>com.practicalddd.cargotracker.tracking.domain.model.valueobjects</t>
   </si>
   <si>
+    <t>値オブジェクト</t>
+  </si>
+  <si>
     <t>クラス名</t>
   </si>
   <si>
@@ -77,6 +86,9 @@
     <t>TrackingActivity</t>
   </si>
   <si>
+    <t>追跡</t>
+  </si>
+  <si>
     <t>不明</t>
   </si>
   <si>
@@ -86,6 +98,9 @@
     <t>TrackingNumber</t>
   </si>
   <si>
+    <t>追跡番号</t>
+  </si>
+  <si>
     <t>文字列</t>
   </si>
   <si>
@@ -95,7 +110,7 @@
     <t>AddTrackingEventCommand</t>
   </si>
   <si>
-    <t>Add Tracking Event Command</t>
+    <t>追跡追加</t>
   </si>
   <si>
     <t>[AssignTrackingIdCommandService, CargoHandledEventHandler, TrackingActivity, TrackingActivityCommandEventAssembler]</t>
@@ -104,7 +119,7 @@
     <t>AssignTrackingNumberCommand</t>
   </si>
   <si>
-    <t>Assign Tracking Number Command class</t>
+    <t>追跡番号割り当て</t>
   </si>
   <si>
     <t>[AssignTrackingIdCommandService, CargoRoutedEventHandler, TrackingActivity, TrackingDetailsCommandEventAssembler]</t>
@@ -113,6 +128,9 @@
     <t>TrackingActivityEvent</t>
   </si>
   <si>
+    <t>追跡イベント</t>
+  </si>
+  <si>
     <t>コレクション</t>
   </si>
   <si>
@@ -122,7 +140,7 @@
     <t>TrackingBookingId</t>
   </si>
   <si>
-    <t>Aggregate Identifier for the Cargo Aggregate</t>
+    <t>予約追跡ID</t>
   </si>
   <si>
     <t>[AssignTrackingIdCommandService, TrackingActivity, TrackingRepository]</t>
@@ -131,7 +149,7 @@
     <t>TrackingEvent</t>
   </si>
   <si>
-    <t>Tracking Event Details</t>
+    <t>追跡イベント詳細</t>
   </si>
   <si>
     <t>[TrackingActivity, TrackingActivityEvent]</t>
@@ -140,16 +158,22 @@
     <t>TrackingEventType</t>
   </si>
   <si>
+    <t>追跡イベントタイプ</t>
+  </si>
+  <si>
     <t>[TrackingActivity, TrackingEvent]</t>
   </si>
   <si>
     <t>TrackingLocation</t>
   </si>
   <si>
-    <t>TrackingLocation class represented by a unique 5-diigit UN TrackingLocation code.</t>
+    <t>追跡位置</t>
   </si>
   <si>
     <t>TrackingVoyageNumber</t>
+  </si>
+  <si>
+    <t>追跡航海番号</t>
   </si>
   <si>
     <t>フィールドの型</t>
@@ -296,7 +320,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>2.0</v>
@@ -304,10 +328,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>2.0</v>
@@ -315,10 +339,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>2.0</v>
@@ -326,10 +350,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>4.0</v>
@@ -351,7 +375,7 @@
   <cols>
     <col min="1" max="1" width="55.18359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.6328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="66.70703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.9296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.9296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.9296875" customWidth="true" bestFit="true"/>
@@ -366,31 +390,31 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -398,13 +422,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>0.0</v>
@@ -422,7 +446,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -430,13 +454,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>1.0</v>
@@ -454,21 +478,21 @@
         <v>0</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>1.0</v>
@@ -486,21 +510,21 @@
         <v>0</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>1.0</v>
@@ -518,21 +542,21 @@
         <v>0</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>1.0</v>
@@ -550,21 +574,21 @@
         <v>0</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>1.0</v>
@@ -582,21 +606,21 @@
         <v>0</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>2.0</v>
@@ -614,21 +638,21 @@
         <v>0</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n" s="0">
         <v>2.0</v>
@@ -646,21 +670,21 @@
         <v>0</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10" t="n" s="0">
         <v>2.0</v>
@@ -678,21 +702,21 @@
         <v>0</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11" t="n" s="0">
         <v>2.0</v>
@@ -710,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +753,7 @@
   <cols>
     <col min="1" max="1" width="51.078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="18.1953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.9296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="16.88671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="14.87109375" customWidth="true" bestFit="true"/>
@@ -742,51 +766,51 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -807,7 +831,7 @@
     <col min="2" max="2" width="27.6328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.1796875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.9296875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="66.70703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.9296875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.9296875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="13.9296875" customWidth="true" bestFit="true"/>
@@ -822,37 +846,37 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K1" t="s" s="0">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="L1" t="s" s="0">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
@@ -860,16 +884,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>1.0</v>
@@ -890,24 +914,24 @@
         <v>0</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>0.0</v>
@@ -928,24 +952,24 @@
         <v>0</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>0.0</v>
@@ -966,24 +990,24 @@
         <v>0</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n" s="0">
         <v>0.0</v>
@@ -1004,24 +1028,24 @@
         <v>0</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F6" t="n" s="0">
         <v>0.0</v>
@@ -1042,24 +1066,24 @@
         <v>0</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F7" t="n" s="0">
         <v>0.0</v>
@@ -1080,24 +1104,24 @@
         <v>0</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n" s="0">
         <v>0.0</v>
@@ -1118,24 +1142,24 @@
         <v>0</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F9" t="n" s="0">
         <v>1.0</v>
@@ -1156,24 +1180,24 @@
         <v>0</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F10" t="n" s="0">
         <v>0.0</v>
@@ -1194,24 +1218,24 @@
         <v>0</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F11" t="n" s="0">
         <v>0.0</v>
@@ -1232,24 +1256,24 @@
         <v>0</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="D12" t="s" s="0">
-        <v>59</v>
-      </c>
       <c r="E12" t="s" s="0">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F12" t="n" s="0">
         <v>0.0</v>
@@ -1270,24 +1294,24 @@
         <v>0</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F13" t="n" s="0">
         <v>0.0</v>
@@ -1308,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
